--- a/FabrikVerbindung.xlsx
+++ b/FabrikVerbindung.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Otavio\Desktop\TUDa\Freedom Plan\ADP Digitaler Schatten\Code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62762978-AB0E-46A6-98D4-FA43FACD84A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,158 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>lane_name</t>
+  </si>
+  <si>
+    <t>lane_id</t>
+  </si>
+  <si>
+    <t>target_lane_name</t>
+  </si>
+  <si>
+    <t>target_lane_id</t>
+  </si>
+  <si>
+    <t>kanban_cycle_name</t>
+  </si>
+  <si>
+    <t>kanban_cycle_id</t>
+  </si>
+  <si>
+    <t>S001.M004.01.02</t>
+  </si>
+  <si>
+    <t>S001.M006.02.04</t>
+  </si>
+  <si>
+    <t>S001.M006.02.05</t>
+  </si>
+  <si>
+    <t>S001.M006.01.05</t>
+  </si>
+  <si>
+    <t>S001.M006.01.04</t>
+  </si>
+  <si>
+    <t>S001.M006.02.03</t>
+  </si>
+  <si>
+    <t>S001.M006.01.03</t>
+  </si>
+  <si>
+    <t>S001.M006.01.02</t>
+  </si>
+  <si>
+    <t>S001.M006.02.02</t>
+  </si>
+  <si>
+    <t>S001.M006.02.01</t>
+  </si>
+  <si>
+    <t>S001.M006.01.01</t>
+  </si>
+  <si>
+    <t>S001.M004.01.01</t>
+  </si>
+  <si>
+    <t>S001.M004.02.01</t>
+  </si>
+  <si>
+    <t>S001.M004.02.02</t>
+  </si>
+  <si>
+    <t>S001.M004.03.01</t>
+  </si>
+  <si>
+    <t>S001.M004.03.02</t>
+  </si>
+  <si>
+    <t>S001.M004.04.01</t>
+  </si>
+  <si>
+    <t>S001.M004.04.02</t>
+  </si>
+  <si>
+    <t>c63c5b2c-b368-4f15-92ff-812733582ba8</t>
+  </si>
+  <si>
+    <t>aadf95aa-c11e-41a5-adf3-377b540000ab</t>
+  </si>
+  <si>
+    <t>8d20ae37-d762-4d4a-935a-2d07fec2af7e</t>
+  </si>
+  <si>
+    <t>7a5dc1a2-d105-40ec-bcda-5f7c7cb2261b</t>
+  </si>
+  <si>
+    <t>396e2360-6fec-4e18-9072-8b4e2c6c90fe</t>
+  </si>
+  <si>
+    <t>cb043b49-96b7-4f6e-8374-3bb8bbb15a32</t>
+  </si>
+  <si>
+    <t>12b892e8-63b8-4927-8607-a7169e78a9f5</t>
+  </si>
+  <si>
+    <t>3fb5394e-4828-44bd-9732-eeb572cc1c10</t>
+  </si>
+  <si>
+    <t>1a6acfef-0beb-4115-80c2-9c9cf02c6208</t>
+  </si>
+  <si>
+    <t>5a899a44-ea75-4358-a20b-0b338212c1fa</t>
+  </si>
+  <si>
+    <t>2f391f1c-0488-4b21-a215-fe77978d3886</t>
+  </si>
+  <si>
+    <t>ffc280cd-13a8-49e9-a06a-1281e826645d</t>
+  </si>
+  <si>
+    <t>417aec52-81db-459b-9259-21699851a9d1</t>
+  </si>
+  <si>
+    <t>e16d6f63-ffd6-4a1c-83b6-e1ce18dc17a8</t>
+  </si>
+  <si>
+    <t>04e45f88-44aa-41b1-b5d9-8183bf3fa935</t>
+  </si>
+  <si>
+    <t>72638c2d-39fe-426f-aa6c-ba155236f1d0</t>
+  </si>
+  <si>
+    <t>bd4e17b4-44a3-40f5-945a-ccf568820eae</t>
+  </si>
+  <si>
+    <t>266b32ef-d2e6-4b6a-979d-ab161cd5b83a</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,8 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +486,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="45.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>